--- a/data/trans_orig/Q4505_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q4505_R-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>127160</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>107550</v>
+        <v>107763</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>147994</v>
+        <v>148910</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1837538950807832</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1554166659315349</v>
+        <v>0.1557247007554282</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2138601267732408</v>
+        <v>0.2151844458561215</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>152</v>
@@ -764,19 +764,19 @@
         <v>149939</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>128617</v>
+        <v>131093</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>173657</v>
+        <v>176030</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2184294472003744</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1873670388423515</v>
+        <v>0.1909746984566641</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2529816490353478</v>
+        <v>0.2564375858087242</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>281</v>
@@ -785,19 +785,19 @@
         <v>277099</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>247348</v>
+        <v>247310</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>304885</v>
+        <v>307152</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2010216273626012</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1794384591689973</v>
+        <v>0.1794114341248778</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2211788112834991</v>
+        <v>0.222823499619674</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>176195</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>153479</v>
+        <v>155744</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>198961</v>
+        <v>200813</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2546123863259904</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.22178713502058</v>
+        <v>0.2250593147332584</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2875107783891498</v>
+        <v>0.2901878467634034</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>175</v>
@@ -835,19 +835,19 @@
         <v>177962</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>156325</v>
+        <v>155268</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>201982</v>
+        <v>201866</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2592521443202225</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2277329417574391</v>
+        <v>0.2261922433981142</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2942447182034751</v>
+        <v>0.2940754524385158</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>351</v>
@@ -856,19 +856,19 @@
         <v>354156</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>321619</v>
+        <v>322507</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>387598</v>
+        <v>388233</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2569228931239935</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2333183738231233</v>
+        <v>0.2339629094419433</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2811827958895508</v>
+        <v>0.2816440215103463</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>288804</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>264604</v>
+        <v>264083</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>314062</v>
+        <v>315711</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4173405931280656</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3823696102615555</v>
+        <v>0.3816162944407177</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4538402613161096</v>
+        <v>0.4562229370792736</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>283</v>
@@ -906,19 +906,19 @@
         <v>276766</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>251466</v>
+        <v>251405</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>301466</v>
+        <v>301031</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4031898151462211</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3663327254792778</v>
+        <v>0.3662436419213287</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.439171753043668</v>
+        <v>0.4385384626360745</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>563</v>
@@ -927,19 +927,19 @@
         <v>565571</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>530649</v>
+        <v>531848</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>604613</v>
+        <v>601813</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4102937883669705</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.38495958400321</v>
+        <v>0.3858293179075556</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4386164067629358</v>
+        <v>0.4365858073422301</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>23427</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15268</v>
+        <v>15026</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34264</v>
+        <v>33967</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03385407319484417</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02206337584765246</v>
+        <v>0.02171388178065023</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04951326539939231</v>
+        <v>0.04908449746576902</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -977,19 +977,19 @@
         <v>28738</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19251</v>
+        <v>19926</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>40407</v>
+        <v>40110</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04186544331179417</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02804529019422229</v>
+        <v>0.02902742453741686</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05886451657009525</v>
+        <v>0.05843137670192735</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>51</v>
@@ -998,19 +998,19 @@
         <v>52166</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>40482</v>
+        <v>39261</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>69222</v>
+        <v>65844</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03784357547913197</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0293674961569266</v>
+        <v>0.02848168970273114</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05021713601875376</v>
+        <v>0.04776639686471636</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>76425</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>59781</v>
+        <v>61026</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>94940</v>
+        <v>95305</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1104390522703167</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08638732961080667</v>
+        <v>0.08818585695103731</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1371938102846653</v>
+        <v>0.1377216417268541</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>56</v>
@@ -1048,19 +1048,19 @@
         <v>53037</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>40286</v>
+        <v>39769</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>68366</v>
+        <v>66252</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07726315002138784</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05868867805919768</v>
+        <v>0.05793482865778151</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0995946321537583</v>
+        <v>0.09651552326930804</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>129</v>
@@ -1069,19 +1069,19 @@
         <v>129462</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>109936</v>
+        <v>110285</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>150254</v>
+        <v>151405</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09391811566730283</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07975346058274103</v>
+        <v>0.08000617921310636</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1090014798387595</v>
+        <v>0.109836915775688</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>218200</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>193760</v>
+        <v>191339</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>246443</v>
+        <v>245937</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2268665491051354</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2014557487004326</v>
+        <v>0.1989389063316582</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2562309373755395</v>
+        <v>0.2557051515028508</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>213</v>
@@ -1194,19 +1194,19 @@
         <v>233200</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>205351</v>
+        <v>206308</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>261035</v>
+        <v>261699</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2416191508799096</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2127644881388713</v>
+        <v>0.2137563040490991</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2704588849720305</v>
+        <v>0.2711469584963935</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>411</v>
@@ -1215,19 +1215,19 @@
         <v>451401</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>414314</v>
+        <v>413710</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>490723</v>
+        <v>488332</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2342557002624545</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2150095650138109</v>
+        <v>0.2146958358416229</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2546621718642465</v>
+        <v>0.2534212952436796</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>225125</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>197778</v>
+        <v>199897</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>251298</v>
+        <v>253255</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2340665567930078</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2056333978993773</v>
+        <v>0.2078368143635533</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2612786852513094</v>
+        <v>0.2633133942204838</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>182</v>
@@ -1265,19 +1265,19 @@
         <v>198531</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>175070</v>
+        <v>171641</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>226364</v>
+        <v>223356</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2056982083953376</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1813902373072925</v>
+        <v>0.1778373658925946</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2345358735938849</v>
+        <v>0.2314190746845904</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>392</v>
@@ -1286,19 +1286,19 @@
         <v>423656</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>383782</v>
+        <v>386220</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>461726</v>
+        <v>463805</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2198576723132338</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1991649276775136</v>
+        <v>0.2004299312546648</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2396142050242925</v>
+        <v>0.2406930735489196</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>395219</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>363677</v>
+        <v>363716</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>427185</v>
+        <v>427517</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4109164908349903</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3781210745643024</v>
+        <v>0.3781615953679588</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.44415160322506</v>
+        <v>0.4444966050908391</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>390</v>
@@ -1336,19 +1336,19 @@
         <v>406891</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>377836</v>
+        <v>377935</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>436227</v>
+        <v>441398</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4215801463366902</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3914763771152666</v>
+        <v>0.3915784957589371</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4519747643588256</v>
+        <v>0.457333152629844</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>768</v>
@@ -1357,19 +1357,19 @@
         <v>802111</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>759097</v>
+        <v>759588</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>849218</v>
+        <v>842198</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4162576071746431</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3939354995363337</v>
+        <v>0.3941903978061113</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4407043776629035</v>
+        <v>0.4370610252429804</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>51192</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37398</v>
+        <v>37731</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>67207</v>
+        <v>69505</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05322486259606372</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03888368975300618</v>
+        <v>0.03922962630495268</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06987634000731284</v>
+        <v>0.07226577346036508</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -1407,19 +1407,19 @@
         <v>51169</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37987</v>
+        <v>37401</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>66808</v>
+        <v>67532</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0530157506080955</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03935879215400589</v>
+        <v>0.03875142358292295</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06922026947313058</v>
+        <v>0.06996947355760395</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>93</v>
@@ -1428,19 +1428,19 @@
         <v>102360</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>82211</v>
+        <v>82512</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>125199</v>
+        <v>125255</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05312012445485349</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04266376719862759</v>
+        <v>0.04281966694366642</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06497258282739088</v>
+        <v>0.06500155185680409</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>72063</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>56063</v>
+        <v>56863</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>90630</v>
+        <v>92738</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07492554067080287</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05829005653727046</v>
+        <v>0.05912188147708741</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09422968840592169</v>
+        <v>0.0964211636978769</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>71</v>
@@ -1478,19 +1478,19 @@
         <v>75366</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>58064</v>
+        <v>60763</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>94266</v>
+        <v>93593</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0780867437799671</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06016010622093897</v>
+        <v>0.06295611568597505</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09766885560448817</v>
+        <v>0.09697170286941119</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>137</v>
@@ -1499,19 +1499,19 @@
         <v>147429</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>124750</v>
+        <v>122179</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>172981</v>
+        <v>172132</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07650889579481517</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06473958073836418</v>
+        <v>0.06340518071272103</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08976913184923942</v>
+        <v>0.08932820578911634</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>139382</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>118993</v>
+        <v>119396</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>162215</v>
+        <v>162870</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2056958642118089</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1756067063174389</v>
+        <v>0.1762014275958359</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2393911282561213</v>
+        <v>0.2403578208923401</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>177</v>
@@ -1624,19 +1624,19 @@
         <v>173006</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>150959</v>
+        <v>149989</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>195350</v>
+        <v>193771</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2533545251200438</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2210680191915678</v>
+        <v>0.2196485217735516</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.286076312375664</v>
+        <v>0.2837637448611282</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>312</v>
@@ -1645,19 +1645,19 @@
         <v>312388</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>282008</v>
+        <v>280698</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>344988</v>
+        <v>342064</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2296171018518773</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2072865914713555</v>
+        <v>0.2063235115778004</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2535792015123732</v>
+        <v>0.2514299851461004</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>179734</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>157488</v>
+        <v>155670</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>203163</v>
+        <v>201215</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2652463832967942</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2324152364061891</v>
+        <v>0.2297326197826536</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2998219744540551</v>
+        <v>0.2969463479756616</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>184</v>
@@ -1695,19 +1695,19 @@
         <v>180847</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>158229</v>
+        <v>160703</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>205939</v>
+        <v>205607</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2648379988655868</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.231715530049483</v>
+        <v>0.2353381307887393</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3015828420363689</v>
+        <v>0.3010962220822679</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>356</v>
@@ -1716,19 +1716,19 @@
         <v>360582</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>327063</v>
+        <v>328961</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>392097</v>
+        <v>394716</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2650414035335938</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2404040394977337</v>
+        <v>0.2417986289111061</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2882060060779723</v>
+        <v>0.2901310864988356</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>272944</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>248204</v>
+        <v>246074</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>301245</v>
+        <v>299862</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4028019084214755</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3662916101028213</v>
+        <v>0.3631475819480292</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4445677756412227</v>
+        <v>0.4425267466347255</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>240</v>
@@ -1766,19 +1766,19 @@
         <v>238690</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>215602</v>
+        <v>214306</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>264243</v>
+        <v>265704</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.349544974093519</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3157335265081184</v>
+        <v>0.3138354380374592</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3869644935176855</v>
+        <v>0.3891051119908404</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>491</v>
@@ -1787,19 +1787,19 @@
         <v>511634</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>478980</v>
+        <v>479140</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>548392</v>
+        <v>550544</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3760707380998092</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3520683285553768</v>
+        <v>0.3521859548262586</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.403088664777837</v>
+        <v>0.4046707389760587</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>36382</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25964</v>
+        <v>25019</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>49142</v>
+        <v>48548</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05369204200305691</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03831722400351102</v>
+        <v>0.03692196466823951</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07252241543703156</v>
+        <v>0.07164491621187644</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>45</v>
@@ -1837,19 +1837,19 @@
         <v>43185</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>30918</v>
+        <v>32533</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>56636</v>
+        <v>56947</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06324127055955595</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04527698071180453</v>
+        <v>0.04764279027524317</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08293976816867253</v>
+        <v>0.08339473012361379</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>79</v>
@@ -1858,19 +1858,19 @@
         <v>79567</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>64931</v>
+        <v>64121</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>99218</v>
+        <v>97778</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05848507145932245</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04772682855942857</v>
+        <v>0.04713127320378451</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07292872160799994</v>
+        <v>0.07187053192404294</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>49170</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>37807</v>
+        <v>36941</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>65473</v>
+        <v>63501</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07256380206686462</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05579448940381888</v>
+        <v>0.05451699018628255</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09662312721493557</v>
+        <v>0.09371262183001966</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>49</v>
@@ -1908,19 +1908,19 @@
         <v>47132</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>34695</v>
+        <v>35628</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>60367</v>
+        <v>60252</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06902123136129448</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.050808421163561</v>
+        <v>0.05217530144109064</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08840291623283329</v>
+        <v>0.08823513966786956</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>97</v>
@@ -1929,19 +1929,19 @@
         <v>96302</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>79367</v>
+        <v>77629</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>116597</v>
+        <v>114073</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07078568505539723</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05833791187458085</v>
+        <v>0.0570604062653597</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08570330766911304</v>
+        <v>0.08384784947580871</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>239740</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>215803</v>
+        <v>215647</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>267728</v>
+        <v>268471</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2544414208762783</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2290358077297773</v>
+        <v>0.228870641069202</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2841452656003735</v>
+        <v>0.2849336281216711</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>244</v>
@@ -2054,19 +2054,19 @@
         <v>260431</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>231298</v>
+        <v>232071</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>287392</v>
+        <v>289084</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2510470521408082</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2229636690047921</v>
+        <v>0.2237089500412914</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2770363407197714</v>
+        <v>0.2786667634241934</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>494</v>
@@ -2075,19 +2075,19 @@
         <v>500172</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>462890</v>
+        <v>465370</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>540206</v>
+        <v>540415</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.252662653282925</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2338296862723262</v>
+        <v>0.2350826043109288</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2728859717922874</v>
+        <v>0.2729915379112908</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>239053</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>214999</v>
+        <v>215416</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>266356</v>
+        <v>266227</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2537121609130822</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2281831826631465</v>
+        <v>0.2286251905432492</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2826888434024685</v>
+        <v>0.2825521279640916</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>243</v>
@@ -2125,19 +2125,19 @@
         <v>249814</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>221077</v>
+        <v>224857</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>275095</v>
+        <v>279601</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2408120534404463</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2131104456066615</v>
+        <v>0.216754449661565</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2651824313962011</v>
+        <v>0.269526166410243</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>499</v>
@@ -2146,19 +2146,19 @@
         <v>488867</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>447002</v>
+        <v>450688</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>523043</v>
+        <v>526273</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2469520547162161</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2258039152137593</v>
+        <v>0.2276657647603059</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2642159215328048</v>
+        <v>0.2658478786541577</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>332087</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>304201</v>
+        <v>303183</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>360352</v>
+        <v>360416</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3524507872741905</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3228552980115598</v>
+        <v>0.321773988266881</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3824487691794851</v>
+        <v>0.3825172182303592</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>375</v>
@@ -2196,19 +2196,19 @@
         <v>384994</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>355500</v>
+        <v>350518</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>418130</v>
+        <v>415246</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3711210454370802</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3426903039314219</v>
+        <v>0.3378873505601964</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4030630630159885</v>
+        <v>0.4002828929707339</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>725</v>
@@ -2217,19 +2217,19 @@
         <v>717081</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>676882</v>
+        <v>675387</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>760533</v>
+        <v>758610</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3622346536622627</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3419279430533913</v>
+        <v>0.3411731921171633</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3841846005023152</v>
+        <v>0.3832132805396293</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>55394</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>42462</v>
+        <v>42020</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>72918</v>
+        <v>70460</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05879087793388001</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04506536290647319</v>
+        <v>0.0445964778203642</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0773895347256854</v>
+        <v>0.07478063016464737</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>58</v>
@@ -2267,19 +2267,19 @@
         <v>60835</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>46738</v>
+        <v>46289</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>78011</v>
+        <v>76201</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05864263224952235</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04505397638494052</v>
+        <v>0.04462070905421581</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07520041330213605</v>
+        <v>0.07345531952351038</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>114</v>
@@ -2288,19 +2288,19 @@
         <v>116229</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>97039</v>
+        <v>97724</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>139402</v>
+        <v>139119</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05871319202532377</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04901959566249518</v>
+        <v>0.04936532047567029</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07041905481475896</v>
+        <v>0.07027613992662292</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>75948</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>60349</v>
+        <v>60450</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>93555</v>
+        <v>93379</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.08060475300256892</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06404916173749768</v>
+        <v>0.06415644258132767</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09929173632560802</v>
+        <v>0.0991054529006422</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>76</v>
@@ -2338,19 +2338,19 @@
         <v>81307</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>64685</v>
+        <v>65602</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>98662</v>
+        <v>100752</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07837721673214287</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06235366684171195</v>
+        <v>0.06323823895278115</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09510675210838369</v>
+        <v>0.09712146253298805</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>158</v>
@@ -2359,19 +2359,19 @@
         <v>157255</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>131047</v>
+        <v>135205</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>179746</v>
+        <v>184721</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07943744631327246</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06619846815444409</v>
+        <v>0.06829889982970781</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.09079896514876223</v>
+        <v>0.09331216787532406</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>724483</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>677497</v>
+        <v>677667</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>778085</v>
+        <v>769995</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2213075122811612</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2069549011124601</v>
+        <v>0.2070066424150565</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2376814546335518</v>
+        <v>0.2352100132424031</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>786</v>
@@ -2484,19 +2484,19 @@
         <v>816577</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>767567</v>
+        <v>770611</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>863299</v>
+        <v>871040</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2421753913149438</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2276403593130411</v>
+        <v>0.2285429834919507</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2560318280965766</v>
+        <v>0.2583277312519254</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1498</v>
@@ -2505,19 +2505,19 @@
         <v>1541060</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1474062</v>
+        <v>1472045</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1613087</v>
+        <v>1611913</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2318956245979349</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2218139457833402</v>
+        <v>0.2215104669357088</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2427341591074329</v>
+        <v>0.2425574754911471</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>820108</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>760893</v>
+        <v>772085</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>861300</v>
+        <v>870142</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2505180359397672</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2324297461333462</v>
+        <v>0.235848623401619</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2631010834586212</v>
+        <v>0.2658021746224558</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>784</v>
@@ -2555,19 +2555,19 @@
         <v>807154</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>759379</v>
+        <v>758292</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>861109</v>
+        <v>853661</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.239380802959718</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2252120884450076</v>
+        <v>0.2248895675124819</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2553824110412132</v>
+        <v>0.2531735492723048</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1598</v>
@@ -2576,19 +2576,19 @@
         <v>1627262</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1559752</v>
+        <v>1557974</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1693026</v>
+        <v>1699596</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2448671370870407</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2347084528229199</v>
+        <v>0.2344409286211461</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2547632417842835</v>
+        <v>0.2557518410740228</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>1289055</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1230321</v>
+        <v>1235527</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1342761</v>
+        <v>1345568</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3937672127283456</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3758258725243531</v>
+        <v>0.3774162045444616</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4101729627071936</v>
+        <v>0.4110301977429154</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1288</v>
@@ -2626,19 +2626,19 @@
         <v>1307342</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1254275</v>
+        <v>1253696</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1362900</v>
+        <v>1363949</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3877235113251706</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3719850693871244</v>
+        <v>0.3718136179923971</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4042005476875749</v>
+        <v>0.4045117366271131</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2547</v>
@@ -2647,19 +2647,19 @@
         <v>2596397</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2515851</v>
+        <v>2520027</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2683495</v>
+        <v>2674953</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.390700710897361</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3785803696578031</v>
+        <v>0.3792087727953408</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4038070045586737</v>
+        <v>0.4025216880533961</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>166396</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>143850</v>
+        <v>140179</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>192962</v>
+        <v>192874</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05082881461507417</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0439419357014987</v>
+        <v>0.04282055158519431</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05894419347991647</v>
+        <v>0.05891726963519871</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>180</v>
@@ -2697,19 +2697,19 @@
         <v>183926</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>159619</v>
+        <v>159211</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>210710</v>
+        <v>211674</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05454778614650102</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04733892249639565</v>
+        <v>0.04721779002850112</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06249117570499311</v>
+        <v>0.0627771170405521</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>337</v>
@@ -2718,19 +2718,19 @@
         <v>350322</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>317521</v>
+        <v>310891</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>388350</v>
+        <v>388059</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.05271577630456282</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04777991606800655</v>
+        <v>0.04678226727530748</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0584380980915531</v>
+        <v>0.05839436232514673</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>273606</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>242680</v>
+        <v>244523</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>306011</v>
+        <v>309233</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.08357842443565186</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07413141483703078</v>
+        <v>0.07469434800536628</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.09347697305605443</v>
+        <v>0.09446127469385758</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>252</v>
@@ -2768,19 +2768,19 @@
         <v>256842</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>226242</v>
+        <v>227283</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>286847</v>
+        <v>289696</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0761725082536666</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06709761611735426</v>
+        <v>0.06740623652291755</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.08507126427638934</v>
+        <v>0.08591621483619143</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>521</v>
@@ -2789,19 +2789,19 @@
         <v>530448</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>486153</v>
+        <v>489820</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>580052</v>
+        <v>577670</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.07982075111310061</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.07315528524682638</v>
+        <v>0.07370722017964022</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.08728505234353333</v>
+        <v>0.08692657557321584</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>255895</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>228529</v>
+        <v>231232</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>282636</v>
+        <v>281434</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3647023959122321</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3257002343642382</v>
+        <v>0.3295530051132365</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4028145138633147</v>
+        <v>0.4011008311688304</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>251</v>
@@ -3154,19 +3154,19 @@
         <v>270821</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>242815</v>
+        <v>246435</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>296288</v>
+        <v>298832</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3903450267568456</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3499793990172008</v>
+        <v>0.35519736637837</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4270527162325911</v>
+        <v>0.4307190883597603</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>491</v>
@@ -3175,19 +3175,19 @@
         <v>526715</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>489399</v>
+        <v>491473</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>565972</v>
+        <v>562469</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3774515335867713</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3507096693686779</v>
+        <v>0.3521963832373103</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.405583273545408</v>
+        <v>0.4030726843873537</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>238755</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>214992</v>
+        <v>212019</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>265081</v>
+        <v>262360</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3402738429567175</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.306406965176728</v>
+        <v>0.3021709099406312</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3777949858754414</v>
+        <v>0.3739167580670834</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>220</v>
@@ -3225,19 +3225,19 @@
         <v>233441</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>207405</v>
+        <v>208504</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>256520</v>
+        <v>260006</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3364677268930942</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2989413281285652</v>
+        <v>0.3005249805731696</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3697327201578007</v>
+        <v>0.3747573336659032</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>452</v>
@@ -3246,19 +3246,19 @@
         <v>472195</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>437015</v>
+        <v>437839</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>509387</v>
+        <v>505661</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3383814982127459</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3131707412375355</v>
+        <v>0.3137612962389604</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.365033504288795</v>
+        <v>0.3623637790048893</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>115322</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>95658</v>
+        <v>95669</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>134898</v>
+        <v>135392</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1643579508030202</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1363316363685331</v>
+        <v>0.1363472148703923</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1922564692318663</v>
+        <v>0.192960910723962</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>90</v>
@@ -3296,19 +3296,19 @@
         <v>96756</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>78427</v>
+        <v>80420</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>116572</v>
+        <v>115351</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1394577767343571</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1130395119720206</v>
+        <v>0.1159132719974341</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.168020485697481</v>
+        <v>0.166259773171868</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>203</v>
@@ -3317,19 +3317,19 @@
         <v>212078</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>186054</v>
+        <v>186461</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>240399</v>
+        <v>241943</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1519779516818278</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1333288270447708</v>
+        <v>0.1336202758463384</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1722728744376426</v>
+        <v>0.1733795831277629</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>15948</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9432</v>
+        <v>9243</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25036</v>
+        <v>25360</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02272882377619748</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01344245527544888</v>
+        <v>0.01317369196698566</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03568183416770499</v>
+        <v>0.03614264798137393</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -3367,19 +3367,19 @@
         <v>11352</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6039</v>
+        <v>6072</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19936</v>
+        <v>19586</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01636256176138358</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.008704606913704454</v>
+        <v>0.008752398535722182</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02873423400529048</v>
+        <v>0.0282296987188464</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -3388,19 +3388,19 @@
         <v>27300</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17973</v>
+        <v>18680</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>39117</v>
+        <v>41324</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01956361224268194</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01287958789699128</v>
+        <v>0.01338612907226546</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02803188173802563</v>
+        <v>0.02961363076659147</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>75734</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>60201</v>
+        <v>61915</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>93865</v>
+        <v>95602</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1079369865518327</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08579854283792815</v>
+        <v>0.08824199267854566</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1337765636240821</v>
+        <v>0.1362516803248225</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>75</v>
@@ -3438,19 +3438,19 @@
         <v>81429</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>63751</v>
+        <v>63730</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>99247</v>
+        <v>100278</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1173669078543196</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09188644020972363</v>
+        <v>0.09185648262695313</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1430487604115295</v>
+        <v>0.1445351183014248</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>147</v>
@@ -3459,19 +3459,19 @@
         <v>157163</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>134981</v>
+        <v>132994</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>184839</v>
+        <v>183349</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1126254042759731</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09672904021878348</v>
+        <v>0.0953056717502262</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1324583577985746</v>
+        <v>0.1313902274625582</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>398683</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>367740</v>
+        <v>367015</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>431870</v>
+        <v>435291</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3931463210451128</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3626325151516959</v>
+        <v>0.3619178990739825</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.425872182581179</v>
+        <v>0.4292451122391369</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>419</v>
@@ -3584,19 +3584,19 @@
         <v>459988</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>426543</v>
+        <v>427430</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>492573</v>
+        <v>490934</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4489119459056346</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4162720990226631</v>
+        <v>0.4171378920680509</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4807115405066835</v>
+        <v>0.4791126875660137</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>788</v>
@@ -3605,19 +3605,19 @@
         <v>858671</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>817984</v>
+        <v>814274</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>908619</v>
+        <v>902140</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4211739646735451</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4012172350300326</v>
+        <v>0.3993973435704845</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4456729818588719</v>
+        <v>0.4424949320332643</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>304910</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>275544</v>
+        <v>275526</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>335321</v>
+        <v>335656</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3006756938773077</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2717168951102849</v>
+        <v>0.2716996626794959</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3306636483628108</v>
+        <v>0.3309940735101495</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>257</v>
@@ -3655,19 +3655,19 @@
         <v>282710</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>251965</v>
+        <v>254202</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>315676</v>
+        <v>314140</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2759024011687922</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2458978796461226</v>
+        <v>0.2480810293775313</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3080746850367687</v>
+        <v>0.3065757210471721</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>536</v>
@@ -3676,19 +3676,19 @@
         <v>587620</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>537488</v>
+        <v>546780</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>625729</v>
+        <v>631317</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2882247077855396</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2636350257439383</v>
+        <v>0.2681927670937738</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3069169573653461</v>
+        <v>0.3096578656929059</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>161954</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>138145</v>
+        <v>140340</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>187466</v>
+        <v>186555</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1597050054960877</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1362259396691838</v>
+        <v>0.138390814612545</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1848628459711514</v>
+        <v>0.1839640402902681</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>128</v>
@@ -3726,19 +3726,19 @@
         <v>138653</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>116141</v>
+        <v>118290</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>161553</v>
+        <v>164700</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1353144172080783</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1133446355910847</v>
+        <v>0.1154420358487448</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1576628112012848</v>
+        <v>0.160733666059235</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>278</v>
@@ -3747,19 +3747,19 @@
         <v>300607</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>270162</v>
+        <v>269237</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>334828</v>
+        <v>334972</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1474463655519652</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1325131874606209</v>
+        <v>0.1320594266163179</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1642316720642586</v>
+        <v>0.1643018786292935</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>11538</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6350</v>
+        <v>6148</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19734</v>
+        <v>21468</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01137762963407902</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00626197481732178</v>
+        <v>0.006062716704154756</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01946036610972518</v>
+        <v>0.02116963568465489</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -3797,19 +3797,19 @@
         <v>23142</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14869</v>
+        <v>14768</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35957</v>
+        <v>34896</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02258452497107103</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01451083063336007</v>
+        <v>0.01441260137279766</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03509162858571805</v>
+        <v>0.03405545181186757</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>31</v>
@@ -3818,19 +3818,19 @@
         <v>34680</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>23929</v>
+        <v>24733</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>49496</v>
+        <v>50755</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01701018319143573</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01173728454161981</v>
+        <v>0.01213120063778216</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02427729515708437</v>
+        <v>0.02489494568481673</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>136998</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>115093</v>
+        <v>112946</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>160309</v>
+        <v>159616</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1350953499474128</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1134942031755441</v>
+        <v>0.1113774684683827</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1580826502343066</v>
+        <v>0.1573996480276884</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>109</v>
@@ -3868,19 +3868,19 @@
         <v>120181</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>98282</v>
+        <v>100452</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>142276</v>
+        <v>142729</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1172867107464239</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09591578966954514</v>
+        <v>0.09803328119692553</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1388502670348119</v>
+        <v>0.1392920515302768</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>232</v>
@@ -3889,19 +3889,19 @@
         <v>257179</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>226769</v>
+        <v>228373</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>289414</v>
+        <v>289782</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1261447787975143</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1112292196971335</v>
+        <v>0.1120159064174755</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.141955924481489</v>
+        <v>0.1421364989543377</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>214819</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>190459</v>
+        <v>187955</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>239462</v>
+        <v>241049</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2835427526090737</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2513904672187852</v>
+        <v>0.2480848471076937</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3160706627653392</v>
+        <v>0.3181652471840283</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>262</v>
@@ -4014,19 +4014,19 @@
         <v>290443</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>263481</v>
+        <v>264839</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>320827</v>
+        <v>318150</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.375061903437476</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3402442032861348</v>
+        <v>0.3419974184888735</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.414296989753774</v>
+        <v>0.4108400198282863</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>457</v>
@@ -4035,19 +4035,19 @@
         <v>505262</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>469049</v>
+        <v>467765</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>544699</v>
+        <v>550244</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3298030571120881</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3061656539743644</v>
+        <v>0.3053272920829646</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3555450324543619</v>
+        <v>0.3591647823972594</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>262649</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>236646</v>
+        <v>236579</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>293007</v>
+        <v>291287</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3466753052172372</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.312353212786977</v>
+        <v>0.3122654594587278</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3867457694832099</v>
+        <v>0.3844750738191522</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>201</v>
@@ -4085,19 +4085,19 @@
         <v>220112</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>194168</v>
+        <v>193813</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>246891</v>
+        <v>247384</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2842399632806888</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2507373163388623</v>
+        <v>0.2502788966755762</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3188206300894103</v>
+        <v>0.3194579792928561</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>440</v>
@@ -4106,19 +4106,19 @@
         <v>482761</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>444046</v>
+        <v>443001</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>525982</v>
+        <v>525693</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3151160315177899</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2898453169131536</v>
+        <v>0.2891631890976882</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3433276848156479</v>
+        <v>0.3431391507113287</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>175949</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>153389</v>
+        <v>152546</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>204289</v>
+        <v>200132</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.232237826894358</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2024606453873616</v>
+        <v>0.2013488180783634</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2696451670972884</v>
+        <v>0.2641579481687771</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>164</v>
@@ -4156,19 +4156,19 @@
         <v>178719</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>156870</v>
+        <v>156117</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>203152</v>
+        <v>204478</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2307868972193422</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2025726181810023</v>
+        <v>0.2016001726151097</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2623391704545581</v>
+        <v>0.2640506399432045</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>330</v>
@@ -4177,19 +4177,19 @@
         <v>354667</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>323105</v>
+        <v>322115</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>389831</v>
+        <v>394246</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2315044235796294</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2109024254890176</v>
+        <v>0.2102562975885278</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2544573142233399</v>
+        <v>0.2573391957208593</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>23035</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14940</v>
+        <v>14561</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>34080</v>
+        <v>36372</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03040369292776236</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01971990844988668</v>
+        <v>0.01921926467899839</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04498229375084316</v>
+        <v>0.04800745207670096</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -4227,19 +4227,19 @@
         <v>18157</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10477</v>
+        <v>10545</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29702</v>
+        <v>28602</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02344631199377918</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01352874820729616</v>
+        <v>0.01361665301675163</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03835546935364795</v>
+        <v>0.03693499511569415</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>37</v>
@@ -4248,19 +4248,19 @@
         <v>41191</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>29610</v>
+        <v>29744</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>58011</v>
+        <v>57005</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0268869365151838</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01932755964173264</v>
+        <v>0.01941479838896915</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03786560986357421</v>
+        <v>0.03720903493889383</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>81172</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>62276</v>
+        <v>65127</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>99781</v>
+        <v>102510</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1071404223515688</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08219859300017049</v>
+        <v>0.0859625932107316</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.131703356401762</v>
+        <v>0.1353043969102154</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>60</v>
@@ -4298,19 +4298,19 @@
         <v>66957</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>52705</v>
+        <v>52078</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>84887</v>
+        <v>85478</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08646492406871378</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06806026368212681</v>
+        <v>0.06724997944205546</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1096183361909775</v>
+        <v>0.1103813060970396</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>128</v>
@@ -4319,19 +4319,19 @@
         <v>148129</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>123487</v>
+        <v>122338</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>173709</v>
+        <v>172700</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0966895512753088</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08060430087649839</v>
+        <v>0.0798545715664308</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1133864098003547</v>
+        <v>0.1127277819856192</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>313380</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>284515</v>
+        <v>286418</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>343129</v>
+        <v>344620</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3309878478758224</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3005013788426252</v>
+        <v>0.3025104553160219</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3624083281282697</v>
+        <v>0.3639832573216784</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>391</v>
@@ -4444,19 +4444,19 @@
         <v>407702</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>376726</v>
+        <v>377840</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>439104</v>
+        <v>440425</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3894081906188614</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3598218176098545</v>
+        <v>0.360885902554663</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4194011657769863</v>
+        <v>0.4206635562835443</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>685</v>
@@ -4465,19 +4465,19 @@
         <v>721082</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>675513</v>
+        <v>678759</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>762890</v>
+        <v>768446</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3616656551674538</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.338810316599208</v>
+        <v>0.3404384604277714</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3826349271888407</v>
+        <v>0.3854216838285757</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>319425</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>290596</v>
+        <v>288344</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>348931</v>
+        <v>347511</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3373723359258525</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3069232947701053</v>
+        <v>0.3045453203015475</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3685359486205215</v>
+        <v>0.3670369312364202</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>314</v>
@@ -4515,19 +4515,19 @@
         <v>327259</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>296813</v>
+        <v>297609</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>358754</v>
+        <v>356651</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3125752481587703</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2834951145229879</v>
+        <v>0.2842548923640251</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3426571236833209</v>
+        <v>0.3406476449595868</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>632</v>
@@ -4536,19 +4536,19 @@
         <v>646684</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>604813</v>
+        <v>602367</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>686482</v>
+        <v>689340</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3243508395738329</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3033501536742236</v>
+        <v>0.3021230626245792</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.344311919045227</v>
+        <v>0.3457453022800989</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>187962</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>164133</v>
+        <v>162509</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>212446</v>
+        <v>212905</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1985225709202134</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1733548187731289</v>
+        <v>0.1716400844655921</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2243828861240809</v>
+        <v>0.2248677385363382</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>173</v>
@@ -4586,19 +4586,19 @@
         <v>187148</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>162676</v>
+        <v>160344</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>215348</v>
+        <v>213155</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1787502580713632</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1553765233139655</v>
+        <v>0.1531493831240605</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.205685559238916</v>
+        <v>0.203590536205448</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>356</v>
@@ -4607,19 +4607,19 @@
         <v>375109</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>342949</v>
+        <v>342084</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>419299</v>
+        <v>411400</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1881396944288023</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1720094385329051</v>
+        <v>0.1715756881645993</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2103035020761566</v>
+        <v>0.2063417907216551</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>37139</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>26279</v>
+        <v>27188</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>50960</v>
+        <v>51526</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03922545836064788</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02775511644869658</v>
+        <v>0.02871534190541896</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05382347841785771</v>
+        <v>0.05442128747886005</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>40</v>
@@ -4657,19 +4657,19 @@
         <v>40387</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>29884</v>
+        <v>28554</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>53953</v>
+        <v>54486</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03857496431306263</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02854285756107425</v>
+        <v>0.02727235211354921</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05153215926679478</v>
+        <v>0.05204104153752551</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>75</v>
@@ -4678,19 +4678,19 @@
         <v>77526</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>60434</v>
+        <v>61202</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>96467</v>
+        <v>95730</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03888386962461549</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03031122636870295</v>
+        <v>0.03069665983444584</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04838419561912831</v>
+        <v>0.04801435449315564</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>88897</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>71655</v>
+        <v>72067</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>110030</v>
+        <v>108928</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0938917869174639</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07568070121627996</v>
+        <v>0.07611631715387591</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1162119785433752</v>
+        <v>0.1150487827230913</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>81</v>
@@ -4728,19 +4728,19 @@
         <v>84482</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>67549</v>
+        <v>68532</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>103626</v>
+        <v>104011</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08069133883794244</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06451771039731138</v>
+        <v>0.06545709196429683</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09897620336177076</v>
+        <v>0.09934432136166636</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>160</v>
@@ -4749,19 +4749,19 @@
         <v>173379</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>148501</v>
+        <v>148003</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>203288</v>
+        <v>202414</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.08695994120529546</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07448198287934436</v>
+        <v>0.07423258324663431</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1019611896098192</v>
+        <v>0.1015226887402532</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>1182777</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1129782</v>
+        <v>1121264</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1239178</v>
+        <v>1241585</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3458246646623953</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.330329741402027</v>
+        <v>0.327839336038084</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3623153574557287</v>
+        <v>0.363019126350519</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1323</v>
@@ -4874,19 +4874,19 @@
         <v>1428954</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1364636</v>
+        <v>1372663</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1486468</v>
+        <v>1491309</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4036778630850485</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3855081284583264</v>
+        <v>0.3877757735430021</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4199254347745292</v>
+        <v>0.4212932324227387</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2421</v>
@@ -4895,19 +4895,19 @@
         <v>2611731</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2521136</v>
+        <v>2526735</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2701031</v>
+        <v>2693354</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3752486427889811</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3622320841855491</v>
+        <v>0.36303659728223</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3880790413123228</v>
+        <v>0.3869761573852544</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>1125739</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1070633</v>
+        <v>1067554</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1187937</v>
+        <v>1182451</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3291477384162402</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3130355049761751</v>
+        <v>0.3121352679756363</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3473334826982661</v>
+        <v>0.345729234450667</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>992</v>
@@ -4945,19 +4945,19 @@
         <v>1063522</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1004942</v>
+        <v>1005550</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1120110</v>
+        <v>1116489</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3004437227473817</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2838950574859589</v>
+        <v>0.2840667682052607</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3164299002251754</v>
+        <v>0.3154068654904033</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2060</v>
@@ -4966,19 +4966,19 @@
         <v>2189261</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2111394</v>
+        <v>2110386</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2275510</v>
+        <v>2271583</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3145489547324852</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3033611814879836</v>
+        <v>0.303216376698882</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3269409817064404</v>
+        <v>0.326376776713329</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>641187</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>596775</v>
+        <v>596425</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>686906</v>
+        <v>689125</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1874726475027081</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1744872700588718</v>
+        <v>0.1743848334377899</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2008401706842722</v>
+        <v>0.201488895435769</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>555</v>
@@ -5016,19 +5016,19 @@
         <v>601275</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>552965</v>
+        <v>552844</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>643265</v>
+        <v>644950</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1698594262713763</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1562119536094292</v>
+        <v>0.1561778493066819</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1817215342141155</v>
+        <v>0.1821976926337774</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1167</v>
@@ -5037,19 +5037,19 @@
         <v>1242462</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1178239</v>
+        <v>1176226</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1309216</v>
+        <v>1308005</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.178514611467029</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1692871196407516</v>
+        <v>0.1689979437325887</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1881057436850593</v>
+        <v>0.1879316652424283</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>87659</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>70770</v>
+        <v>68318</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>110326</v>
+        <v>105027</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02563004488953345</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02069192477920714</v>
+        <v>0.01997506935699362</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03225761958853558</v>
+        <v>0.03070822722139702</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>87</v>
@@ -5087,19 +5087,19 @@
         <v>93038</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>76068</v>
+        <v>74849</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>119153</v>
+        <v>114415</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02628305790689645</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02148906831282539</v>
+        <v>0.02114481488088762</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03366071715841504</v>
+        <v>0.03232221123898226</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>169</v>
@@ -5108,19 +5108,19 @@
         <v>180697</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>152513</v>
+        <v>154711</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>210513</v>
+        <v>210614</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02596216552007997</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02191283494216852</v>
+        <v>0.02222861492692229</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03024614337478056</v>
+        <v>0.03026057178234674</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>382802</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>345291</v>
+        <v>345345</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>422613</v>
+        <v>426007</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1119249045291229</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1009573519830866</v>
+        <v>0.1009733108895158</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1235649941364001</v>
+        <v>0.1245574675651264</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>325</v>
@@ -5158,19 +5158,19 @@
         <v>353049</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>316207</v>
+        <v>315986</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>393318</v>
+        <v>391926</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09973592998929708</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08932802467961544</v>
+        <v>0.08926557621437088</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1111117895183922</v>
+        <v>0.1107185796640801</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>667</v>
@@ -5179,19 +5179,19 @@
         <v>735850</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>687436</v>
+        <v>684120</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>794441</v>
+        <v>791710</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1057256254914248</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0987695142347871</v>
+        <v>0.09829314541114481</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1141437684741541</v>
+        <v>0.1137514886496517</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>205488</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>179959</v>
+        <v>180667</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>228779</v>
+        <v>231650</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3045167894959732</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2666843120540938</v>
+        <v>0.2677338921279503</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3390323898020151</v>
+        <v>0.3432868629053604</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>204</v>
@@ -5544,19 +5544,19 @@
         <v>210929</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>187724</v>
+        <v>189138</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>235452</v>
+        <v>236211</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3145045067553158</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2799054438511782</v>
+        <v>0.2820132991669405</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3510687542209045</v>
+        <v>0.3522011947926107</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>400</v>
@@ -5565,19 +5565,19 @@
         <v>416417</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>381164</v>
+        <v>383926</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>448341</v>
+        <v>453902</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3094953220779884</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2832941648861779</v>
+        <v>0.2853468593972587</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.33322248308957</v>
+        <v>0.3373557831147195</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>212148</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>189381</v>
+        <v>187850</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>237991</v>
+        <v>236384</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3143869722712574</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2806474409560504</v>
+        <v>0.2783782122355523</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3526843281557995</v>
+        <v>0.3503021834250283</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>228</v>
@@ -5615,19 +5615,19 @@
         <v>225795</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>203155</v>
+        <v>202104</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>249327</v>
+        <v>248338</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3366700609046253</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.302913732546966</v>
+        <v>0.3013457196131032</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3717574565901494</v>
+        <v>0.3702827238780147</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>438</v>
@@ -5636,19 +5636,19 @@
         <v>437943</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>401771</v>
+        <v>399277</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>471603</v>
+        <v>472466</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3254943234215298</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2986099428252396</v>
+        <v>0.2967560717364541</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3505112966116856</v>
+        <v>0.3511529537425341</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>149327</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>127457</v>
+        <v>125165</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>174159</v>
+        <v>171449</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.221290786103249</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1888810047189984</v>
+        <v>0.1854843260519765</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2580903514987834</v>
+        <v>0.2540731760556422</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>137</v>
@@ -5686,19 +5686,19 @@
         <v>133451</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>113717</v>
+        <v>113097</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>152663</v>
+        <v>154325</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1989816364414128</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1695565344106572</v>
+        <v>0.1686324704743233</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2276271078901355</v>
+        <v>0.2301052808975517</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>280</v>
@@ -5707,19 +5707,19 @@
         <v>282778</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>253335</v>
+        <v>253748</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>311899</v>
+        <v>317194</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.210170444429118</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1882872974427716</v>
+        <v>0.1885943749005495</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2318138570022825</v>
+        <v>0.2357495395893533</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>15932</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8181</v>
+        <v>9237</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24875</v>
+        <v>24881</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02360937957334461</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01212356285399084</v>
+        <v>0.01368782755176883</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03686311447955243</v>
+        <v>0.03687177949825642</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -5757,19 +5757,19 @@
         <v>16597</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9294</v>
+        <v>10654</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25483</v>
+        <v>25824</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02474660583876718</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01385717475096389</v>
+        <v>0.01588534468124841</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03799635694923643</v>
+        <v>0.03850501089077428</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>33</v>
@@ -5778,19 +5778,19 @@
         <v>32528</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22790</v>
+        <v>22970</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>44934</v>
+        <v>44448</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02417624764424777</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01693862658631513</v>
+        <v>0.01707187355945657</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03339659839255545</v>
+        <v>0.03303522898462679</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>91905</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>74125</v>
+        <v>75739</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>111500</v>
+        <v>110775</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1361960725561757</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.109847063215769</v>
+        <v>0.1122385717501513</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1652344857015194</v>
+        <v>0.1641604173077382</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>77</v>
@@ -5828,19 +5828,19 @@
         <v>83899</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>66602</v>
+        <v>67740</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>102194</v>
+        <v>101951</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1250971900598789</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09930582075040041</v>
+        <v>0.1010037563512904</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1523752336769586</v>
+        <v>0.1520141156629701</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>165</v>
@@ -5849,19 +5849,19 @@
         <v>175804</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>151844</v>
+        <v>151095</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>202459</v>
+        <v>203490</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.130663662427116</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.112855678548574</v>
+        <v>0.1122991317316913</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1504741419509729</v>
+        <v>0.1512409767567112</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>342585</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>312144</v>
+        <v>312572</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>374781</v>
+        <v>372315</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3371176960537116</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3071626659931174</v>
+        <v>0.3075831424186993</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3688000903183891</v>
+        <v>0.3663734700881355</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>332</v>
@@ -5974,19 +5974,19 @@
         <v>361778</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>331516</v>
+        <v>327856</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>396138</v>
+        <v>393061</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3472283780264587</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3181841496419642</v>
+        <v>0.3146711166393522</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3802068383428651</v>
+        <v>0.3772538071132046</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>646</v>
@@ -5995,19 +5995,19 @@
         <v>704363</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>660124</v>
+        <v>662283</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>745130</v>
+        <v>753721</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3422361212475196</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.320741498881903</v>
+        <v>0.3217906146383724</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3620439653008521</v>
+        <v>0.3662185189129348</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>366563</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>337204</v>
+        <v>336144</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>400561</v>
+        <v>397157</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3607133795372116</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3318227654533336</v>
+        <v>0.3307794241661332</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3941680848988687</v>
+        <v>0.3908185680142231</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>327</v>
@@ -6045,19 +6045,19 @@
         <v>347566</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>317438</v>
+        <v>316574</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>380304</v>
+        <v>380865</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3335880338874497</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3046719178816701</v>
+        <v>0.3038427997376928</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3650101195754458</v>
+        <v>0.3655485234569247</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>670</v>
@@ -6066,19 +6066,19 @@
         <v>714129</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>673729</v>
+        <v>670454</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>756864</v>
+        <v>758592</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3469814618546331</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3273516943436149</v>
+        <v>0.3257604676800514</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3677457147271558</v>
+        <v>0.3685852959591502</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>187908</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>163049</v>
+        <v>164090</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>213674</v>
+        <v>214700</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1849094023351849</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1604467820398555</v>
+        <v>0.161470819697039</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2102642862011737</v>
+        <v>0.211273279964903</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>215</v>
@@ -6116,19 +6116,19 @@
         <v>221252</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>195392</v>
+        <v>196450</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>248643</v>
+        <v>247386</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2123537352570656</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1875345002608683</v>
+        <v>0.1885498698556993</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2386433706965062</v>
+        <v>0.2374368817619846</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>392</v>
@@ -6137,19 +6137,19 @@
         <v>409160</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>376574</v>
+        <v>372301</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>448671</v>
+        <v>446751</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.198802803930967</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.182970051397169</v>
+        <v>0.1808935813864705</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2180006987260875</v>
+        <v>0.2170674989743761</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>29410</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19671</v>
+        <v>19548</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>42039</v>
+        <v>41364</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02894101205858027</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0193568098433213</v>
+        <v>0.01923597671289327</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04136809961854639</v>
+        <v>0.04070395627153044</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -6187,19 +6187,19 @@
         <v>22668</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14565</v>
+        <v>15082</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33534</v>
+        <v>33907</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02175608817326108</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01397917623926939</v>
+        <v>0.01447519667780562</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03218543552197491</v>
+        <v>0.03254339324639653</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>49</v>
@@ -6208,19 +6208,19 @@
         <v>52078</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>38524</v>
+        <v>38564</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>68527</v>
+        <v>67480</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02530372077305297</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01871789351375874</v>
+        <v>0.01873748660392181</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03329601252706242</v>
+        <v>0.03278709558486807</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>89751</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>71502</v>
+        <v>72546</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>109039</v>
+        <v>107341</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08831851001531171</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07036066174228829</v>
+        <v>0.07138783548174098</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1072989171152833</v>
+        <v>0.1056283292310887</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>80</v>
@@ -6258,19 +6258,19 @@
         <v>88638</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>70585</v>
+        <v>70393</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>107916</v>
+        <v>110365</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08507376465576488</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06774629847916469</v>
+        <v>0.06756186312184868</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.103576292981913</v>
+        <v>0.1059264846804632</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>164</v>
@@ -6279,19 +6279,19 @@
         <v>178389</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>154036</v>
+        <v>151495</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>210375</v>
+        <v>203091</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08667589219382724</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07484304880494215</v>
+        <v>0.0736084171490867</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1022168947900894</v>
+        <v>0.09867811546306345</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>216297</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>193012</v>
+        <v>192268</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>244027</v>
+        <v>242697</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2874278722995892</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2564845945917554</v>
+        <v>0.2554970886156049</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3242761179162147</v>
+        <v>0.3225090738223736</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>215</v>
@@ -6404,19 +6404,19 @@
         <v>234655</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>209093</v>
+        <v>210661</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>261465</v>
+        <v>259189</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3007664086399746</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2680025734728805</v>
+        <v>0.2700122609061233</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3351297370761271</v>
+        <v>0.3322127413143207</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>416</v>
@@ -6425,19 +6425,19 @@
         <v>450952</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>415092</v>
+        <v>413540</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>488918</v>
+        <v>485922</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2942175129519395</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2708212372312632</v>
+        <v>0.2698085611973647</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3189876973286522</v>
+        <v>0.3170333016749222</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>326386</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>296428</v>
+        <v>300040</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>352267</v>
+        <v>357100</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4337199949864569</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3939105358296271</v>
+        <v>0.3987094426737354</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4681119086206615</v>
+        <v>0.4745349292235198</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>347</v>
@@ -6475,19 +6475,19 @@
         <v>368628</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>339500</v>
+        <v>340110</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>397547</v>
+        <v>394990</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4724843445818226</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4351510019106729</v>
+        <v>0.4359327385969597</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5095519790169304</v>
+        <v>0.5062737913618804</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>646</v>
@@ -6496,19 +6496,19 @@
         <v>695014</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>653395</v>
+        <v>654969</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>736729</v>
+        <v>738147</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4534519953467762</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4262984062215148</v>
+        <v>0.4273251724701971</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4806689500149315</v>
+        <v>0.481593974253275</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>156453</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>133518</v>
+        <v>135917</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>179553</v>
+        <v>180730</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2079030397840005</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1774258579921096</v>
+        <v>0.1806140942615689</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2386000129186495</v>
+        <v>0.2401643980943046</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>135</v>
@@ -6546,19 +6546,19 @@
         <v>138673</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>117778</v>
+        <v>117646</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>160847</v>
+        <v>161224</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1777429622732908</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1509607066035838</v>
+        <v>0.1507910894324128</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2061637298509967</v>
+        <v>0.206646828446358</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>273</v>
@@ -6567,19 +6567,19 @@
         <v>295126</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>264295</v>
+        <v>264633</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>329950</v>
+        <v>327898</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1925508239846742</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1724356468396905</v>
+        <v>0.1726562090749245</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2152712977780049</v>
+        <v>0.2139326347559785</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>19431</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11871</v>
+        <v>11655</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29807</v>
+        <v>30213</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02582079552196756</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01577425284392005</v>
+        <v>0.0154883509731484</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03960979143041427</v>
+        <v>0.04014866222815136</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -6617,19 +6617,19 @@
         <v>9148</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4052</v>
+        <v>4198</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17061</v>
+        <v>17305</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01172505568610912</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005193853765661056</v>
+        <v>0.005381332858536104</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02186736075025857</v>
+        <v>0.02218082500586263</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>27</v>
@@ -6638,19 +6638,19 @@
         <v>28579</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>19491</v>
+        <v>18676</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>41680</v>
+        <v>42064</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01864571980359727</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0127166840598366</v>
+        <v>0.01218462709827084</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02719351350307298</v>
+        <v>0.02744412623921759</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>33960</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>23821</v>
+        <v>24118</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>47058</v>
+        <v>46023</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04512829740798585</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03165464483587438</v>
+        <v>0.03204950178015223</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06253368037352146</v>
+        <v>0.06115824148918354</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>26</v>
@@ -6688,19 +6688,19 @@
         <v>29086</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>19045</v>
+        <v>18790</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>41381</v>
+        <v>41491</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03728122881880293</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02441046873515344</v>
+        <v>0.02408395936406401</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05304019316687272</v>
+        <v>0.05318048376596284</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>59</v>
@@ -6709,19 +6709,19 @@
         <v>63047</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>49629</v>
+        <v>48820</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>81712</v>
+        <v>81664</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04113394791301281</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03237952479825254</v>
+        <v>0.03185208144000638</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05331183701038446</v>
+        <v>0.0532804475657284</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>360021</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>332796</v>
+        <v>327271</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>390835</v>
+        <v>387692</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3843906312353106</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3553225972351949</v>
+        <v>0.3494237453279515</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4172901626684</v>
+        <v>0.4139344741044656</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>368</v>
@@ -6834,19 +6834,19 @@
         <v>407666</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>377028</v>
+        <v>375714</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>441470</v>
+        <v>440429</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3909842276127177</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3615998609383368</v>
+        <v>0.3603390759657395</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4234049117982769</v>
+        <v>0.4224059704325352</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>726</v>
@@ -6855,19 +6855,19 @@
         <v>767688</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>724574</v>
+        <v>718983</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>814940</v>
+        <v>810036</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3878640953977154</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3660816840229738</v>
+        <v>0.3632566366030486</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4117374829726917</v>
+        <v>0.4092600705720525</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>316107</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>288545</v>
+        <v>288705</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>344394</v>
+        <v>345472</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.337503723552727</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3080759304666064</v>
+        <v>0.3082467176273082</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3677051673281252</v>
+        <v>0.3688564304720862</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>327</v>
@@ -6905,19 +6905,19 @@
         <v>348635</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>317839</v>
+        <v>319311</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>380105</v>
+        <v>381757</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3343686294411429</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3048323209054693</v>
+        <v>0.3062449447970161</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3645503679716372</v>
+        <v>0.3661354920447202</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>644</v>
@@ -6926,19 +6926,19 @@
         <v>664742</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>619709</v>
+        <v>618386</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>707696</v>
+        <v>707205</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3358521761392901</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3130996860367151</v>
+        <v>0.3124311778429079</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3575540036223949</v>
+        <v>0.357305897885427</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>147059</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>125784</v>
+        <v>124496</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>170141</v>
+        <v>170733</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1570130503698927</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1342978800676338</v>
+        <v>0.1329224697483851</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1816574248958576</v>
+        <v>0.1822892490031124</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>153</v>
@@ -6976,19 +6976,19 @@
         <v>160843</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>138482</v>
+        <v>136420</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>184257</v>
+        <v>182241</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.154261388666534</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1328147084395166</v>
+        <v>0.1308372137940891</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1767170636631951</v>
+        <v>0.1747839460823683</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>301</v>
@@ -6997,19 +6997,19 @@
         <v>307902</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>276041</v>
+        <v>278643</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>343168</v>
+        <v>339075</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1555634926829182</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1394660613017882</v>
+        <v>0.1407806198595651</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1733809276348122</v>
+        <v>0.1713133306594992</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>28328</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>20134</v>
+        <v>19402</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>39931</v>
+        <v>39746</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03024526579585014</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0214969041678073</v>
+        <v>0.02071571737173425</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04263428408016336</v>
+        <v>0.04243646461321576</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>22</v>
@@ -7047,19 +7047,19 @@
         <v>24288</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>15884</v>
+        <v>15790</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>34795</v>
+        <v>35943</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02329416239644732</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01523418164408595</v>
+        <v>0.0151438547656087</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03337138844123783</v>
+        <v>0.03447240840074085</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>51</v>
@@ -7068,19 +7068,19 @@
         <v>52616</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>39443</v>
+        <v>39597</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>67878</v>
+        <v>69148</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02658346923369988</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01992799987602284</v>
+        <v>0.02000583787078225</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03429471126091885</v>
+        <v>0.03493607641393918</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>85088</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>67386</v>
+        <v>68507</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>104773</v>
+        <v>104382</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09084732904621956</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07194726374079306</v>
+        <v>0.07314450536178259</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1118650575480722</v>
+        <v>0.1114473899370675</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>88</v>
@@ -7118,19 +7118,19 @@
         <v>101234</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>81896</v>
+        <v>82053</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>122765</v>
+        <v>122762</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09709159188315804</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07854444343849144</v>
+        <v>0.07869564037548797</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1177411050747182</v>
+        <v>0.1177387417186668</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>167</v>
@@ -7139,19 +7139,19 @@
         <v>186322</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>159262</v>
+        <v>161024</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>214050</v>
+        <v>215845</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09413676654637648</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08046505709546341</v>
+        <v>0.08135549285102256</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1081458129179794</v>
+        <v>0.1090528314679937</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>1124392</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1072443</v>
+        <v>1069910</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1177448</v>
+        <v>1181367</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3326456989429528</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3172769654867429</v>
+        <v>0.3165274210181125</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3483420091427182</v>
+        <v>0.3495016057259051</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1119</v>
@@ -7264,19 +7264,19 @@
         <v>1215028</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1154677</v>
+        <v>1157649</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1271862</v>
+        <v>1274197</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3436719918886894</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3266017332320784</v>
+        <v>0.3274423877569613</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3597475574332836</v>
+        <v>0.3604081637576998</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2188</v>
@@ -7285,19 +7285,19 @@
         <v>2339420</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2260650</v>
+        <v>2260329</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2420785</v>
+        <v>2427427</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3382826362448725</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3268924456516616</v>
+        <v>0.3268460358938266</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3500481822071307</v>
+        <v>0.3510085503906062</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>1221205</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1167232</v>
+        <v>1161934</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1278282</v>
+        <v>1278992</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3612873536528339</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3453199375972479</v>
+        <v>0.3437523738830108</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3781734155812551</v>
+        <v>0.3783833117903197</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1229</v>
@@ -7335,19 +7335,19 @@
         <v>1290623</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1234392</v>
+        <v>1230987</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1351525</v>
+        <v>1349022</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3650542296908955</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3491491520356378</v>
+        <v>0.3481860435821739</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3822802477428884</v>
+        <v>0.3815723075214861</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2398</v>
@@ -7356,19 +7356,19 @@
         <v>2511828</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2423726</v>
+        <v>2429871</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2591137</v>
+        <v>2593201</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3632130819238996</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3504734345513727</v>
+        <v>0.3513620222384567</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3746813070371124</v>
+        <v>0.3749796988491228</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>640747</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>591956</v>
+        <v>597519</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>684561</v>
+        <v>689112</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.189561761426917</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1751273614586236</v>
+        <v>0.176772986550831</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2025240151371406</v>
+        <v>0.203870276602072</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>640</v>
@@ -7406,19 +7406,19 @@
         <v>654219</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>606469</v>
+        <v>604266</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>699264</v>
+        <v>701854</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1850466548822706</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.171540430892033</v>
+        <v>0.170917350107366</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1977875423424326</v>
+        <v>0.1985200667263802</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1246</v>
@@ -7427,19 +7427,19 @@
         <v>1294966</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1227468</v>
+        <v>1231973</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1355708</v>
+        <v>1361398</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1872535176110749</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1774932452682313</v>
+        <v>0.1781445861399866</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1960368839143775</v>
+        <v>0.1968596709081328</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>93101</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>75403</v>
+        <v>75193</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>114998</v>
+        <v>114172</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02754336229360265</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02230750374324713</v>
+        <v>0.02224562197038066</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03402171301997294</v>
+        <v>0.03377736410724266</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>71</v>
@@ -7477,19 +7477,19 @@
         <v>72700</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>57585</v>
+        <v>57888</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>91869</v>
+        <v>90454</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02056337197676043</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01628798208241646</v>
+        <v>0.01637356845978168</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02598536353974899</v>
+        <v>0.02558497258968032</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>160</v>
@@ -7498,19 +7498,19 @@
         <v>165801</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>142913</v>
+        <v>141148</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>195117</v>
+        <v>192487</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02397500364598847</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02066541609089089</v>
+        <v>0.02041010349181643</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02821413596508283</v>
+        <v>0.02783386673906402</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>300704</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>271035</v>
+        <v>270154</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>337597</v>
+        <v>338615</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.08896182368369365</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.08018447088446394</v>
+        <v>0.079923579890933</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.09987633613039683</v>
+        <v>0.100177517297617</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>271</v>
@@ -7548,19 +7548,19 @@
         <v>302858</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>270995</v>
+        <v>269911</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>336663</v>
+        <v>341107</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.08566375156138423</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07665118593734943</v>
+        <v>0.07634452074839831</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.09522540419341831</v>
+        <v>0.09648261429186326</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>555</v>
@@ -7569,19 +7569,19 @@
         <v>603562</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>555556</v>
+        <v>557123</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>658279</v>
+        <v>654618</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.08727576057416454</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08033397531674485</v>
+        <v>0.08056054248156815</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.09518780331339728</v>
+        <v>0.0946585407824648</v>
       </c>
     </row>
     <row r="33">
